--- a/src/test/resources/files/newaddjournals.xlsx
+++ b/src/test/resources/files/newaddjournals.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="AcrWithSplChar_1" sheetId="1" r:id="rId1"/>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1:AQ2"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AI14" sqref="AI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,112 +1098,112 @@
         <v>36</v>
       </c>
       <c r="E2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO2" s="7" t="s">
         <v>48</v>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G15:G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
